--- a/data/trans_orig/Q5407-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10160</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5323</v>
+        <v>5464</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17678</v>
+        <v>18113</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02722539209981616</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0142641993128008</v>
+        <v>0.01464102570864562</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04736921269476862</v>
+        <v>0.04853590453137617</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -765,19 +765,19 @@
         <v>35965</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24271</v>
+        <v>25120</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48478</v>
+        <v>49978</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06119160002424239</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04129500041598226</v>
+        <v>0.0427396276920178</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08247995464198089</v>
+        <v>0.08503349071703883</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -786,19 +786,19 @@
         <v>46126</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33134</v>
+        <v>33711</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60305</v>
+        <v>61474</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04800052140475918</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.034480813610825</v>
+        <v>0.03508134501121472</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0627562481019542</v>
+        <v>0.06397304257394205</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>31043</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21835</v>
+        <v>22333</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42128</v>
+        <v>42012</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08318363307671325</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05850957906018704</v>
+        <v>0.05984354343748862</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1128867822818724</v>
+        <v>0.1125762261509998</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -836,19 +836,19 @@
         <v>72788</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59137</v>
+        <v>58236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92511</v>
+        <v>90875</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1238425879142939</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1006154332466598</v>
+        <v>0.09908345650368362</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1573990769919541</v>
+        <v>0.1546159517482253</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>100</v>
@@ -857,19 +857,19 @@
         <v>103832</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>86249</v>
+        <v>84877</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>125878</v>
+        <v>123614</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1080523215695234</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08975504508790814</v>
+        <v>0.08832704072086958</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1309947326961139</v>
+        <v>0.1286390322588235</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>331986</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>319609</v>
+        <v>318359</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>342127</v>
+        <v>341458</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8895909748234706</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8564276958229393</v>
+        <v>0.853078440865299</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9167647148535928</v>
+        <v>0.914973789501598</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>474</v>
@@ -907,19 +907,19 @@
         <v>478995</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>457897</v>
+        <v>458409</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>495675</v>
+        <v>496479</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8149658120614637</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7790695216539292</v>
+        <v>0.7799405894933256</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.843344075426505</v>
+        <v>0.8447128016164752</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>828</v>
@@ -928,19 +928,19 @@
         <v>810981</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>785413</v>
+        <v>785612</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>831787</v>
+        <v>832217</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8439471570257173</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8173397578085554</v>
+        <v>0.8175469504808219</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8655987019669628</v>
+        <v>0.8660466701997724</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5773</v>
+        <v>5945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01834190768168999</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09279912365366218</v>
+        <v>0.09556704143788211</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5710</v>
+        <v>5779</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007592310232627089</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03798885450504076</v>
+        <v>0.03845109158922875</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>5304</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2513</v>
+        <v>2438</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11252</v>
+        <v>10795</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06021808320586668</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02852702477489788</v>
+        <v>0.02767826748245216</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1277460783488269</v>
+        <v>0.1225590610285489</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1116,19 +1116,19 @@
         <v>5432</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2168</v>
+        <v>2028</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11769</v>
+        <v>11219</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08730895054535613</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03484394323019038</v>
+        <v>0.03259581223265978</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1891705560446961</v>
+        <v>0.1803332038317107</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1137,19 +1137,19 @@
         <v>10736</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5773</v>
+        <v>5763</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17905</v>
+        <v>18027</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0714318714814272</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03841026269147027</v>
+        <v>0.03834628375066057</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1191310887707347</v>
+        <v>0.119946643139633</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>82779</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76831</v>
+        <v>77288</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85570</v>
+        <v>85645</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9397819167941334</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8722539216511758</v>
+        <v>0.877440938971451</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9714729752251021</v>
+        <v>0.9723217325175477</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1187,19 +1187,19 @@
         <v>55639</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49222</v>
+        <v>48942</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59260</v>
+        <v>59882</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8943491417729539</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7912055891036265</v>
+        <v>0.7867010502152256</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9525479255594971</v>
+        <v>0.9625516966432643</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>137</v>
@@ -1208,19 +1208,19 @@
         <v>138418</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>130804</v>
+        <v>130778</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>143826</v>
+        <v>143572</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9209758182859457</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8703148685632003</v>
+        <v>0.8701453804420848</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.956955358747856</v>
+        <v>0.9552698254716988</v>
       </c>
     </row>
     <row r="11">
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6222</v>
+        <v>5186</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04738674078105654</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2314701426101697</v>
+        <v>0.1929366463749501</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6305</v>
+        <v>6795</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01871158352050372</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09261290242380128</v>
+        <v>0.09981196896300491</v>
       </c>
     </row>
     <row r="13">
@@ -1375,19 +1375,19 @@
         <v>4068</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10552</v>
+        <v>10121</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09875532933242022</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02348782756097387</v>
+        <v>0.02298713342214764</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2561473886281353</v>
+        <v>0.2456834891491823</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7169</v>
+        <v>6579</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07530920836487574</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2667110423241276</v>
+        <v>0.2447353367656645</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1417,19 +1417,19 @@
         <v>6093</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2212</v>
+        <v>2018</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13469</v>
+        <v>12976</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08949716885366825</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03249084668731183</v>
+        <v>0.0296450419989778</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1978492525238425</v>
+        <v>0.1906130054804508</v>
       </c>
     </row>
     <row r="14">
@@ -1446,19 +1446,19 @@
         <v>37126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30642</v>
+        <v>31073</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40226</v>
+        <v>40247</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9012446706675797</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7438526113718645</v>
+        <v>0.7543165108508176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9765121724390261</v>
+        <v>0.9770128665778524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -1467,19 +1467,19 @@
         <v>23583</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18303</v>
+        <v>18970</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26005</v>
+        <v>26008</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8773040508540677</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6808982669199696</v>
+        <v>0.7057198944308687</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9674061526589813</v>
+        <v>0.9675242403751443</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>56</v>
@@ -1488,19 +1488,19 @@
         <v>60709</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>52202</v>
+        <v>53741</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>65017</v>
+        <v>65192</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8917912476258281</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7668377095144649</v>
+        <v>0.7894318085254205</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9550853781578182</v>
+        <v>0.9576425192542628</v>
       </c>
     </row>
     <row r="15">
@@ -1592,19 +1592,19 @@
         <v>10160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5219</v>
+        <v>5382</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18270</v>
+        <v>16991</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02022070351753216</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0103857860136475</v>
+        <v>0.01071092635322076</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03636025104512273</v>
+        <v>0.0338151960528918</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -1613,19 +1613,19 @@
         <v>38380</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26706</v>
+        <v>27971</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52318</v>
+        <v>52113</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05670481792306725</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03945668250344008</v>
+        <v>0.04132545520343352</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07729658119088308</v>
+        <v>0.07699462393335799</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -1634,19 +1634,19 @@
         <v>48540</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36315</v>
+        <v>36073</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>63928</v>
+        <v>63351</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04116008560932766</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03079325108939423</v>
+        <v>0.03058844268970411</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05420833659400453</v>
+        <v>0.05371854152580184</v>
       </c>
     </row>
     <row r="17">
@@ -1663,19 +1663,19 @@
         <v>40416</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29649</v>
+        <v>30477</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52490</v>
+        <v>55443</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08043437796459244</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05900717343362737</v>
+        <v>0.06065437084536378</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1044649370696585</v>
+        <v>0.1103416697779704</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -1684,19 +1684,19 @@
         <v>80244</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64206</v>
+        <v>64208</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>97957</v>
+        <v>97670</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1185571054138482</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09486148931228736</v>
+        <v>0.09486397176054281</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1447271581509527</v>
+        <v>0.1443024763747686</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>116</v>
@@ -1705,19 +1705,19 @@
         <v>120660</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>101295</v>
+        <v>102096</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>143345</v>
+        <v>141687</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1023142116798447</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08589376779862201</v>
+        <v>0.08657291640254704</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1215498101655252</v>
+        <v>0.1201445294809417</v>
       </c>
     </row>
     <row r="18">
@@ -1734,19 +1734,19 @@
         <v>451890</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>438273</v>
+        <v>435923</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>464297</v>
+        <v>462814</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8993449185178755</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8722447262651011</v>
+        <v>0.8675663120536183</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9240356724085217</v>
+        <v>0.9210859035042662</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>552</v>
@@ -1755,19 +1755,19 @@
         <v>558217</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>536716</v>
+        <v>535947</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>577710</v>
+        <v>577143</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8247380766630845</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7929703169865571</v>
+        <v>0.7918341290314475</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.853537008522698</v>
+        <v>0.8526993569999169</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1021</v>
@@ -1776,19 +1776,19 @@
         <v>1010108</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>982564</v>
+        <v>985709</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1032455</v>
+        <v>1033098</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8565257027108276</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8331700646599232</v>
+        <v>0.8358365180710517</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8754754483033093</v>
+        <v>0.8760207029452318</v>
       </c>
     </row>
     <row r="19">
@@ -2119,19 +2119,19 @@
         <v>31918</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21594</v>
+        <v>21603</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45404</v>
+        <v>45637</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0770236473741942</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05211010077852886</v>
+        <v>0.05213072968193994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1095653603448019</v>
+        <v>0.1101281666199405</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -2140,19 +2140,19 @@
         <v>82080</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65306</v>
+        <v>64637</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>99958</v>
+        <v>99448</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1293521081503959</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1029171715125483</v>
+        <v>0.1018632905406899</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1575274921777121</v>
+        <v>0.1567239173690733</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>103</v>
@@ -2161,19 +2161,19 @@
         <v>113998</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93928</v>
+        <v>94740</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136210</v>
+        <v>135254</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1086790978926582</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08954551711215436</v>
+        <v>0.09032001785452461</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1298548169525715</v>
+        <v>0.1289434805041399</v>
       </c>
     </row>
     <row r="5">
@@ -2190,19 +2190,19 @@
         <v>45290</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31293</v>
+        <v>32253</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61057</v>
+        <v>62517</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1092918846685695</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07551331952936403</v>
+        <v>0.07783206151642655</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1473387477875784</v>
+        <v>0.1508624749939448</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -2211,19 +2211,19 @@
         <v>87309</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70051</v>
+        <v>69282</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>105709</v>
+        <v>106667</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1375924150224252</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1103962002023675</v>
+        <v>0.1091841183017612</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1665909953266776</v>
+        <v>0.1681007342818834</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>117</v>
@@ -2232,19 +2232,19 @@
         <v>132599</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>111872</v>
+        <v>110967</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>159013</v>
+        <v>154809</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1264119379813204</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1066523138802432</v>
+        <v>0.105789714110395</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1515933715415118</v>
+        <v>0.1475855579068935</v>
       </c>
     </row>
     <row r="6">
@@ -2261,19 +2261,19 @@
         <v>337189</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>317913</v>
+        <v>319185</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>353435</v>
+        <v>352836</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8136844679572363</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7671690197801402</v>
+        <v>0.7702389023546641</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8528878969973596</v>
+        <v>0.8514427041521005</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>441</v>
@@ -2282,19 +2282,19 @@
         <v>465157</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>443366</v>
+        <v>441687</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>489073</v>
+        <v>488083</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.733055476827179</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6987146079559562</v>
+        <v>0.6960692952843185</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7707463135778928</v>
+        <v>0.7691856039530094</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>754</v>
@@ -2303,19 +2303,19 @@
         <v>802345</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>770501</v>
+        <v>773730</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>830505</v>
+        <v>832195</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7649089641260214</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7345507012171877</v>
+        <v>0.7376293585502676</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7917549768643621</v>
+        <v>0.793366169635831</v>
       </c>
     </row>
     <row r="7">
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6777</v>
+        <v>7309</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01642535654881825</v>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05710717665695664</v>
+        <v>0.06159158958940408</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8499</v>
+        <v>8438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02917861155365456</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1023115979848438</v>
+        <v>0.1015738333025159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -2449,19 +2449,19 @@
         <v>4373</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1136</v>
+        <v>1292</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10583</v>
+        <v>10496</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02167703512962516</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005629674719377126</v>
+        <v>0.006405994494491923</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05245986929275196</v>
+        <v>0.05202877883453629</v>
       </c>
     </row>
     <row r="9">
@@ -2478,19 +2478,19 @@
         <v>8240</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4041</v>
+        <v>4022</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16398</v>
+        <v>15227</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06943686037379709</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03405396249601054</v>
+        <v>0.03389749845215127</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1381831692629335</v>
+        <v>0.1283200448881396</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -2499,19 +2499,19 @@
         <v>13878</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7735</v>
+        <v>8321</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22064</v>
+        <v>21985</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.16705606468219</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09311460921110977</v>
+        <v>0.1001606635290643</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.265599823930578</v>
+        <v>0.2646399107597576</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>21</v>
@@ -2520,19 +2520,19 @@
         <v>22118</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14084</v>
+        <v>13906</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>32965</v>
+        <v>32437</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1096355927089842</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06981530428497822</v>
+        <v>0.06893298350068426</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1634057330349144</v>
+        <v>0.1607866076279077</v>
       </c>
     </row>
     <row r="10">
@@ -2549,19 +2549,19 @@
         <v>108476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99833</v>
+        <v>100707</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>113207</v>
+        <v>113541</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9141377830773847</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.841302638199136</v>
+        <v>0.8486641090848177</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.954007738879342</v>
+        <v>0.9568216227720235</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -2570,19 +2570,19 @@
         <v>66772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57967</v>
+        <v>57672</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73120</v>
+        <v>72967</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8037653237641554</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6977775138531114</v>
+        <v>0.6942293105505617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8801779654609716</v>
+        <v>0.8783429662359259</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -2591,19 +2591,19 @@
         <v>175248</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>163856</v>
+        <v>163752</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>184329</v>
+        <v>184263</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8686873721613907</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8122175361352971</v>
+        <v>0.8117033410928643</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9137003724577631</v>
+        <v>0.9133740452995761</v>
       </c>
     </row>
     <row r="11">
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03708751132104731</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7148</v>
+        <v>7696</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1016764197981903</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3213133676549307</v>
+        <v>0.3459380125177446</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -2737,19 +2737,19 @@
         <v>3248</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>920</v>
+        <v>944</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8529</v>
+        <v>8423</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06651861373326728</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01884693542221872</v>
+        <v>0.01934495676107776</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1746993936618916</v>
+        <v>0.1725328004344535</v>
       </c>
     </row>
     <row r="13">
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5278</v>
+        <v>5334</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03923360703863061</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1986170841285252</v>
+        <v>0.2007010018580365</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4685</v>
+        <v>4775</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04731906176422252</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2105799785261089</v>
+        <v>0.2146454048085877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6864</v>
+        <v>7365</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04291789048123554</v>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1405969606794317</v>
+        <v>0.1508493898162887</v>
       </c>
     </row>
     <row r="14">
@@ -2837,7 +2837,7 @@
         <v>24547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20529</v>
+        <v>19941</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>26575</v>
@@ -2846,7 +2846,7 @@
         <v>0.9236788816403221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7724807587636594</v>
+        <v>0.7503828793083349</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2858,19 +2858,19 @@
         <v>18931</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14231</v>
+        <v>14101</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21278</v>
+        <v>21246</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8510045184375872</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6396898473122546</v>
+        <v>0.6338792440095338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9564939554511979</v>
+        <v>0.9550503109106687</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -2879,19 +2879,19 @@
         <v>43478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37276</v>
+        <v>37454</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46805</v>
+        <v>46828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8905634957854972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7635251311718171</v>
+        <v>0.7671753033115445</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9587129865921835</v>
+        <v>0.9591848280688907</v>
       </c>
     </row>
     <row r="15">
@@ -2983,19 +2983,19 @@
         <v>34853</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24329</v>
+        <v>24805</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48927</v>
+        <v>48046</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06227807919669241</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0434731664932234</v>
+        <v>0.04432283558927154</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08742673051036244</v>
+        <v>0.08585212469473634</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -3004,19 +3004,19 @@
         <v>86766</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69273</v>
+        <v>69950</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>106651</v>
+        <v>107370</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1172721654291654</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09362930065813577</v>
+        <v>0.09454462468549471</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1441499016432451</v>
+        <v>0.1451217075401157</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -3025,19 +3025,19 @@
         <v>121619</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100771</v>
+        <v>99835</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>145463</v>
+        <v>142150</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09358868686604693</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07754588807544566</v>
+        <v>0.0768255141434248</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1119371481491799</v>
+        <v>0.1093881427432257</v>
       </c>
     </row>
     <row r="17">
@@ -3054,19 +3054,19 @@
         <v>54573</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41143</v>
+        <v>40717</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>70388</v>
+        <v>73218</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09751433032443246</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07351770140351449</v>
+        <v>0.0727561974816541</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1257750894463307</v>
+        <v>0.1308313555037759</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>94</v>
@@ -3075,19 +3075,19 @@
         <v>102239</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>84360</v>
+        <v>85018</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>122880</v>
+        <v>123933</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1381863840565979</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1140204403812984</v>
+        <v>0.1149107856685678</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1660847682998978</v>
+        <v>0.167507454732063</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>140</v>
@@ -3096,19 +3096,19 @@
         <v>156812</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>135807</v>
+        <v>133884</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>184408</v>
+        <v>182688</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1206707604927872</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1045068130050811</v>
+        <v>0.1030269473931579</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1419067327757205</v>
+        <v>0.1405827746254732</v>
       </c>
     </row>
     <row r="18">
@@ -3125,19 +3125,19 @@
         <v>470211</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>449688</v>
+        <v>449916</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>487125</v>
+        <v>487638</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8402075904788752</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8035349441778581</v>
+        <v>0.8039426017139168</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.870429819246837</v>
+        <v>0.8713471998648797</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>518</v>
@@ -3146,19 +3146,19 @@
         <v>550860</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>525902</v>
+        <v>525597</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>576231</v>
+        <v>573788</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7445414505142367</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7108074638357363</v>
+        <v>0.7103955998831429</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7788330433108427</v>
+        <v>0.7755306123252634</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>945</v>
@@ -3167,19 +3167,19 @@
         <v>1021071</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>988371</v>
+        <v>989764</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1050479</v>
+        <v>1051803</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7857405526411658</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7605764015677063</v>
+        <v>0.761648514087274</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.808370809403733</v>
+        <v>0.8093894437393592</v>
       </c>
     </row>
     <row r="19">
@@ -3510,19 +3510,19 @@
         <v>22094</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14154</v>
+        <v>14210</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31020</v>
+        <v>32125</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06243039110830714</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03999382699817632</v>
+        <v>0.04015271534998229</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08765123467705216</v>
+        <v>0.09077525417543077</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -3531,19 +3531,19 @@
         <v>50910</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37439</v>
+        <v>36145</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67203</v>
+        <v>66804</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09176965320735303</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06748793187100681</v>
+        <v>0.0651550995320832</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1211401632420392</v>
+        <v>0.1204201948733797</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -3552,19 +3552,19 @@
         <v>73004</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56216</v>
+        <v>55251</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91884</v>
+        <v>91948</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08034268680871307</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06186684183122348</v>
+        <v>0.06080475978704449</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1011210349612443</v>
+        <v>0.1011913007798329</v>
       </c>
     </row>
     <row r="5">
@@ -3581,19 +3581,19 @@
         <v>41402</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31319</v>
+        <v>30400</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54292</v>
+        <v>52845</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1169880228136495</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08849690764342878</v>
+        <v>0.08589936104148081</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.153409333165264</v>
+        <v>0.149321850405008</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>84</v>
@@ -3602,19 +3602,19 @@
         <v>101979</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>82364</v>
+        <v>83722</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>121802</v>
+        <v>123944</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1838272190338943</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1484681863984275</v>
+        <v>0.1509170526239529</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2195596440574155</v>
+        <v>0.223420479841232</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>131</v>
@@ -3623,19 +3623,19 @@
         <v>143382</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>120800</v>
+        <v>120713</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>166586</v>
+        <v>167845</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1577948925649312</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1329437976426169</v>
+        <v>0.1328480728077803</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1833323487653645</v>
+        <v>0.1847171420599016</v>
       </c>
     </row>
     <row r="6">
@@ -3652,19 +3652,19 @@
         <v>290405</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>276896</v>
+        <v>277495</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>303196</v>
+        <v>303877</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8205815860780433</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7824098527235847</v>
+        <v>0.7841027609037561</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8567255865342017</v>
+        <v>0.8586503118664421</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>348</v>
@@ -3673,19 +3673,19 @@
         <v>401868</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>379807</v>
+        <v>375793</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>424854</v>
+        <v>422818</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7244031277587526</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6846358225897705</v>
+        <v>0.6774003123745412</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7658373489570932</v>
+        <v>0.7621687648953009</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>663</v>
@@ -3694,19 +3694,19 @@
         <v>692272</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>664618</v>
+        <v>664308</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>720518</v>
+        <v>718714</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7618624206263558</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.731427910595032</v>
+        <v>0.7310874211618361</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7929473267687961</v>
+        <v>0.7909616134953287</v>
       </c>
     </row>
     <row r="7">
@@ -3798,19 +3798,19 @@
         <v>7858</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3558</v>
+        <v>3690</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14362</v>
+        <v>14309</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04081280954456055</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01848126319296689</v>
+        <v>0.0191677885559032</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07459444164624257</v>
+        <v>0.074322099515561</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -3819,19 +3819,19 @@
         <v>4540</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1025</v>
+        <v>1179</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10133</v>
+        <v>10105</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0241412969170609</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0054506676694655</v>
+        <v>0.006268714788019031</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05387967237954108</v>
+        <v>0.05372902272637431</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -3840,19 +3840,19 @@
         <v>12398</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7035</v>
+        <v>6781</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20382</v>
+        <v>20815</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03257468895036914</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01848368295107128</v>
+        <v>0.0178170245892981</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05355180615533211</v>
+        <v>0.05468953351139556</v>
       </c>
     </row>
     <row r="9">
@@ -3869,19 +3869,19 @@
         <v>7316</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3354</v>
+        <v>3481</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13550</v>
+        <v>14778</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03800057031756306</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01742148568688216</v>
+        <v>0.01808093644907871</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07037840215997936</v>
+        <v>0.07675421493421183</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -3890,19 +3890,19 @@
         <v>28262</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18307</v>
+        <v>18656</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>39880</v>
+        <v>42299</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1502693388906808</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09733823952358622</v>
+        <v>0.09919453406311914</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2120438492517502</v>
+        <v>0.224904269245282</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>30</v>
@@ -3911,19 +3911,19 @@
         <v>35578</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>24438</v>
+        <v>23638</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>49556</v>
+        <v>48930</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09347745925570992</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06420829045494558</v>
+        <v>0.0621072565276842</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1302039665405471</v>
+        <v>0.1285578021431425</v>
       </c>
     </row>
     <row r="10">
@@ -3940,19 +3940,19 @@
         <v>177358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>168741</v>
+        <v>168199</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>183356</v>
+        <v>183072</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9211866201378764</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8764283808927762</v>
+        <v>0.8736173698408919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9523418558321241</v>
+        <v>0.9508634657027257</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>131</v>
@@ -3961,19 +3961,19 @@
         <v>155272</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>142723</v>
+        <v>141633</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>166100</v>
+        <v>166246</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8255893641922584</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7588678234731651</v>
+        <v>0.7530722282955399</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.883162773972906</v>
+        <v>0.8839385844466421</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>311</v>
@@ -3982,19 +3982,19 @@
         <v>332630</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>317439</v>
+        <v>317258</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>344722</v>
+        <v>344916</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.873947851793921</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8340351669706433</v>
+        <v>0.8335597260384988</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9057183792336804</v>
+        <v>0.9062294225785514</v>
       </c>
     </row>
     <row r="11">
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7180</v>
+        <v>8181</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05491820555694648</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1708462182170812</v>
+        <v>0.1946576772921431</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10503</v>
+        <v>8760</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03048968011484191</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1387408164268549</v>
+        <v>0.1157107781326927</v>
       </c>
     </row>
     <row r="13">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5332</v>
+        <v>5298</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04186689511430128</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1268664232381098</v>
+        <v>0.1260522937023959</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -4170,19 +4170,19 @@
         <v>3622</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9670</v>
+        <v>10275</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1075727511649343</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03050583068121799</v>
+        <v>0.03086783359947991</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2871533792333615</v>
+        <v>0.3051193153617177</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -4191,19 +4191,19 @@
         <v>5382</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1922</v>
+        <v>2061</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12050</v>
+        <v>12747</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07109394577901702</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0253842619537849</v>
+        <v>0.02721898883293102</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.15917671261034</v>
+        <v>0.168381827518792</v>
       </c>
     </row>
     <row r="14">
@@ -4220,19 +4220,19 @@
         <v>37961</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32762</v>
+        <v>31740</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41116</v>
+        <v>40495</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9032148993287522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7795175270154364</v>
+        <v>0.7551813311045463</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9782671569690254</v>
+        <v>0.9635056764695976</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -4241,19 +4241,19 @@
         <v>30052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>24004</v>
+        <v>23399</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32647</v>
+        <v>32635</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8924272488350657</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7128466207666385</v>
+        <v>0.6948806846382823</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9694941693187821</v>
+        <v>0.9691321664005201</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -4262,19 +4262,19 @@
         <v>68013</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>60074</v>
+        <v>59889</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>72241</v>
+        <v>72174</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8984163741061411</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7935534083436251</v>
+        <v>0.7911069281944583</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9542640856788406</v>
+        <v>0.9533837308385484</v>
       </c>
     </row>
     <row r="15">
@@ -4366,19 +4366,19 @@
         <v>32260</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23069</v>
+        <v>22962</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45098</v>
+        <v>43430</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05482105733354265</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03920191355133306</v>
+        <v>0.03902069835814333</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07663622926040187</v>
+        <v>0.07380301896775197</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -4387,19 +4387,19 @@
         <v>55450</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41972</v>
+        <v>40253</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72852</v>
+        <v>72796</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07140996703222707</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05405182523225296</v>
+        <v>0.0518383917961313</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09382058939428643</v>
+        <v>0.09374886383015701</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -4408,19 +4408,19 @@
         <v>87710</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>69412</v>
+        <v>68919</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>108597</v>
+        <v>107687</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0642581823361873</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05085281953717307</v>
+        <v>0.050491252527594</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07955979513599282</v>
+        <v>0.07889339856877557</v>
       </c>
     </row>
     <row r="17">
@@ -4437,19 +4437,19 @@
         <v>50478</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39544</v>
+        <v>38634</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>64824</v>
+        <v>65361</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08577976117018841</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06719852120426516</v>
+        <v>0.06565256753314634</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1101574938583172</v>
+        <v>0.1110702451962846</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -4458,19 +4458,19 @@
         <v>133864</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>112641</v>
+        <v>113396</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>159617</v>
+        <v>157259</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1723924381460372</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1450620146196396</v>
+        <v>0.1460338451488263</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2055582367684022</v>
+        <v>0.2025217204088303</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>166</v>
@@ -4479,19 +4479,19 @@
         <v>184342</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>158498</v>
+        <v>156947</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>210998</v>
+        <v>209255</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1350521168753731</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1161182096869072</v>
+        <v>0.1149824686484568</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1545812419893617</v>
+        <v>0.1533038066399152</v>
       </c>
     </row>
     <row r="18">
@@ -4508,19 +4508,19 @@
         <v>505725</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>489457</v>
+        <v>489957</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>521171</v>
+        <v>520943</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8593991814962689</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8317552266272357</v>
+        <v>0.8326039600344209</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8856477921225249</v>
+        <v>0.8852596538040741</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>502</v>
@@ -4529,19 +4529,19 @@
         <v>587191</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>557674</v>
+        <v>560212</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>610438</v>
+        <v>611912</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7561975948217358</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7181852630169</v>
+        <v>0.7214534205116909</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7861355627736967</v>
+        <v>0.7880341881257087</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1034</v>
@@ -4550,19 +4550,19 @@
         <v>1092916</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1062608</v>
+        <v>1066524</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1124278</v>
+        <v>1125761</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8006897007884396</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.778485823653819</v>
+        <v>0.7813544621622009</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8236658465291201</v>
+        <v>0.8247523516808405</v>
       </c>
     </row>
     <row r="19">
@@ -4893,19 +4893,19 @@
         <v>29060</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21524</v>
+        <v>21978</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37925</v>
+        <v>37879</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1005231272741163</v>
+        <v>0.1005231272741164</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07445491197505257</v>
+        <v>0.07602555871149812</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.131185639268814</v>
+        <v>0.1310295545491536</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>169</v>
@@ -4914,19 +4914,19 @@
         <v>86726</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>74441</v>
+        <v>75526</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>100435</v>
+        <v>99692</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1616846889916462</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1387824108101355</v>
+        <v>0.1408051156796696</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1872436242833499</v>
+        <v>0.1858570673195018</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>220</v>
@@ -4935,19 +4935,19 @@
         <v>115786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101992</v>
+        <v>101269</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>133400</v>
+        <v>131199</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1402653178889446</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1235548497436065</v>
+        <v>0.1226784436170528</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1616031129120926</v>
+        <v>0.158936798085362</v>
       </c>
     </row>
     <row r="5">
@@ -4964,19 +4964,19 @@
         <v>41575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32754</v>
+        <v>32628</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52232</v>
+        <v>51926</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1438127707663781</v>
+        <v>0.1438127707663782</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.113298987687308</v>
+        <v>0.1128626695137626</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1806776743217976</v>
+        <v>0.179617202327442</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>238</v>
@@ -4985,19 +4985,19 @@
         <v>130047</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>115835</v>
+        <v>116217</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146031</v>
+        <v>144959</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2424488980773827</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2159533736398504</v>
+        <v>0.2166660179212636</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2722490843290535</v>
+        <v>0.2702493664260936</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>301</v>
@@ -5006,19 +5006,19 @@
         <v>171622</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>152297</v>
+        <v>154393</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>189291</v>
+        <v>190841</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2079055712610207</v>
+        <v>0.2079055712610206</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1844948297513143</v>
+        <v>0.1870347948843241</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2293101299909159</v>
+        <v>0.2311879103965453</v>
       </c>
     </row>
     <row r="6">
@@ -5035,19 +5035,19 @@
         <v>218456</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>205971</v>
+        <v>205602</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>228850</v>
+        <v>229452</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7556641019595054</v>
+        <v>0.7556641019595056</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7124793834097352</v>
+        <v>0.7112001849834417</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7916191980093736</v>
+        <v>0.7937009393134076</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>608</v>
@@ -5056,19 +5056,19 @@
         <v>319616</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>301912</v>
+        <v>302260</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>335506</v>
+        <v>336342</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5958664129309711</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5628598585201653</v>
+        <v>0.5635087455433095</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6254907850203049</v>
+        <v>0.6270483550582607</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>921</v>
@@ -5077,19 +5077,19 @@
         <v>538072</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>516443</v>
+        <v>517154</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>558542</v>
+        <v>560276</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6518291108500348</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6256278821759674</v>
+        <v>0.6264887956217658</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6766270083208059</v>
+        <v>0.6787278381298397</v>
       </c>
     </row>
     <row r="7">
@@ -5181,19 +5181,19 @@
         <v>8957</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4972</v>
+        <v>4729</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14737</v>
+        <v>14391</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02947919415158919</v>
+        <v>0.0294791941515892</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.016363599675489</v>
+        <v>0.01556518682830113</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0485046652356385</v>
+        <v>0.04736489002043888</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -5202,19 +5202,19 @@
         <v>16569</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11515</v>
+        <v>11837</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23693</v>
+        <v>23951</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.05967748820140302</v>
+        <v>0.05967748820140303</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04147261591055851</v>
+        <v>0.04263179999254081</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08533451668019748</v>
+        <v>0.08626562702132756</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>45</v>
@@ -5223,19 +5223,19 @@
         <v>25526</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19065</v>
+        <v>17892</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34796</v>
+        <v>33185</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04389853776066387</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03278748892085136</v>
+        <v>0.03077048483321065</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05984115612258006</v>
+        <v>0.05707158273571938</v>
       </c>
     </row>
     <row r="9">
@@ -5252,19 +5252,19 @@
         <v>19636</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14025</v>
+        <v>13494</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27712</v>
+        <v>26737</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06462957753171245</v>
+        <v>0.06462957753171247</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04616274046491497</v>
+        <v>0.04441432606156836</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09120983056957158</v>
+        <v>0.0880009072983626</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>57</v>
@@ -5273,19 +5273,19 @@
         <v>30620</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>23120</v>
+        <v>24161</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38374</v>
+        <v>39248</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1102826249972529</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08327218234295555</v>
+        <v>0.08702054587810226</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1382115282474696</v>
+        <v>0.1413606184776293</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>86</v>
@@ -5294,19 +5294,19 @@
         <v>50256</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40647</v>
+        <v>40486</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>62226</v>
+        <v>62610</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08642839097200615</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0699042429913323</v>
+        <v>0.06962657623352494</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1070155155768166</v>
+        <v>0.1076752200288245</v>
       </c>
     </row>
     <row r="10">
@@ -5323,19 +5323,19 @@
         <v>275232</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>265721</v>
+        <v>266579</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>282294</v>
+        <v>283148</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9058912283166981</v>
+        <v>0.9058912283166984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8745865382575836</v>
+        <v>0.8774085217131211</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9291339984208279</v>
+        <v>0.931945261062584</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>441</v>
@@ -5344,19 +5344,19 @@
         <v>230457</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>220125</v>
+        <v>221183</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>239596</v>
+        <v>239755</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8300398868013441</v>
+        <v>0.830039886801344</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.792827745867867</v>
+        <v>0.7966359646517079</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8629542727671434</v>
+        <v>0.8635260818730122</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>824</v>
@@ -5365,19 +5365,19 @@
         <v>505690</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>492602</v>
+        <v>493308</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>517474</v>
+        <v>519081</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8696730712673301</v>
+        <v>0.8696730712673298</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8471645953568755</v>
+        <v>0.8483796877308112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8899397478642792</v>
+        <v>0.8927039126639984</v>
       </c>
     </row>
     <row r="11">
@@ -5469,19 +5469,19 @@
         <v>2974</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6630</v>
+        <v>6593</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02501987504135515</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009550574906983222</v>
+        <v>0.009520285129675496</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05576724848317405</v>
+        <v>0.05545547791380561</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3512</v>
+        <v>3061</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.007954112892719557</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04238661276236252</v>
+        <v>0.03694556403025057</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -5511,7 +5511,7 @@
         <v>3633</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1277</v>
+        <v>1740</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>7518</v>
@@ -5520,10 +5520,10 @@
         <v>0.01801078184463303</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00632990665285615</v>
+        <v>0.008627042672415344</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03726747897754595</v>
+        <v>0.03726523015492864</v>
       </c>
     </row>
     <row r="13">
@@ -5540,19 +5540,19 @@
         <v>4173</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1552</v>
+        <v>1597</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8661</v>
+        <v>8579</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0351061402765447</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01305729081319927</v>
+        <v>0.01343614958164827</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07285668643351717</v>
+        <v>0.07216482342612622</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -5561,19 +5561,19 @@
         <v>7508</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4396</v>
+        <v>4267</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12040</v>
+        <v>11803</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09062207853977372</v>
+        <v>0.09062207853977371</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05305193606345164</v>
+        <v>0.05149743331291069</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1453113780257038</v>
+        <v>0.142455170339364</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -5582,19 +5582,19 @@
         <v>11682</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7115</v>
+        <v>7345</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17527</v>
+        <v>17914</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05790713690367476</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03526807099898854</v>
+        <v>0.03640950858481199</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08688270729856466</v>
+        <v>0.08880032690491521</v>
       </c>
     </row>
     <row r="14">
@@ -5611,19 +5611,19 @@
         <v>111733</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106781</v>
+        <v>106282</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>115192</v>
+        <v>115300</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9398739846821003</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.898219920596767</v>
+        <v>0.8940221296116535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9689661180031017</v>
+        <v>0.9698747492427724</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>138</v>
@@ -5632,19 +5632,19 @@
         <v>74687</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70121</v>
+        <v>69978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78100</v>
+        <v>77879</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9014238085675067</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8463051403415821</v>
+        <v>0.8445779255201005</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9426051388878101</v>
+        <v>0.9399465476489727</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>295</v>
@@ -5653,19 +5653,19 @@
         <v>186421</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>179451</v>
+        <v>179115</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>191631</v>
+        <v>191150</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9240820812516923</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.88953221789689</v>
+        <v>0.8878670472100856</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9499085503021337</v>
+        <v>0.947526658006573</v>
       </c>
     </row>
     <row r="15">
@@ -5757,19 +5757,19 @@
         <v>40991</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32251</v>
+        <v>31432</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50863</v>
+        <v>51814</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0575883702651308</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04530905582488758</v>
+        <v>0.04415838027573077</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07145674056301479</v>
+        <v>0.07279378267792472</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>201</v>
@@ -5778,19 +5778,19 @@
         <v>103954</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>90919</v>
+        <v>89896</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>118414</v>
+        <v>117901</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1159050841237622</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1013719057030656</v>
+        <v>0.1002308990194925</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1320278647966425</v>
+        <v>0.1314553918350206</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>271</v>
@@ -5799,19 +5799,19 @@
         <v>144945</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>128743</v>
+        <v>128613</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>164478</v>
+        <v>163120</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09010163564942424</v>
+        <v>0.09010163564942426</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08002969029663831</v>
+        <v>0.07994878508002962</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1022434551461673</v>
+        <v>0.1013995732680591</v>
       </c>
     </row>
     <row r="17">
@@ -5828,19 +5828,19 @@
         <v>65385</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53364</v>
+        <v>53133</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>77461</v>
+        <v>79688</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09185836361849012</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07497066916752433</v>
+        <v>0.07464562038598334</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1088248676796447</v>
+        <v>0.1119537947464048</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>308</v>
@@ -5849,19 +5849,19 @@
         <v>168175</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>151341</v>
+        <v>152089</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>187003</v>
+        <v>186173</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1875089635701812</v>
+        <v>0.1875089635701811</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1687394318806854</v>
+        <v>0.1695732973179699</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.208501272603651</v>
+        <v>0.2075761891361474</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>406</v>
@@ -5870,19 +5870,19 @@
         <v>233559</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>213810</v>
+        <v>213571</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>257801</v>
+        <v>255951</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.145186357166534</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1329097126259273</v>
+        <v>0.132760784236397</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1602553931673303</v>
+        <v>0.159105705028854</v>
       </c>
     </row>
     <row r="18">
@@ -5899,19 +5899,19 @@
         <v>605421</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>589605</v>
+        <v>588711</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>620033</v>
+        <v>619848</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8505532661163793</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8283332328033075</v>
+        <v>0.8270776569357638</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8710807023203221</v>
+        <v>0.8708214975665852</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1187</v>
@@ -5920,19 +5920,19 @@
         <v>624761</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>604757</v>
+        <v>605318</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>645994</v>
+        <v>643674</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6965859523060568</v>
+        <v>0.6965859523060566</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6742816949912711</v>
+        <v>0.6749078239636678</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7202600768439247</v>
+        <v>0.7176728110505805</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2040</v>
@@ -5941,19 +5941,19 @@
         <v>1230182</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1201995</v>
+        <v>1204776</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1256163</v>
+        <v>1254982</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7647120071840416</v>
+        <v>0.7647120071840419</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7471901444488893</v>
+        <v>0.748918964604544</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7808625565769308</v>
+        <v>0.7801281377269316</v>
       </c>
     </row>
     <row r="19">
